--- a/biology/Biologie cellulaire et moléculaire/Interleukine_27/Interleukine_27.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Interleukine_27/Interleukine_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'IL-27, ou Interleukine 27, est une cytokine appartenant à la famille IL-6/IL-12. Elle a notamment des actions pro-inflammatoires et anti-inflammatoires durant la réponse immune adaptative.
 </t>
@@ -511,9 +523,11 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Connue pour ses effets anti et pro-inflammatoires[1],[2], cette cytokine induit notamment la différenciation des Lymphocytes Th1. Cette différenciation est médiée par une activation intracytosolique du facteur de transcription T-bet, à travers l'activation des facteurs STAT-1 dans certains cas. La fixation de l'IL-27 à son récepteur spécifique IL-27R mène au recrutement intracellulaire ainsi qu'à l'activation des Janus kinase permettant l'utilisation de la voie STAT-1 mais essentiellement STAT-3[3]. L'IL-27 est également connu pour ses rôles de régulation négative de la différenciation des cellules Th17 pro-inflammatoires, mais aussi en induisant la sécrétion d'IL-10. Il est également montré que l'IL-27 avait un rôle dans le contrôle de la parasitémie en modulant la réponse des cellules Th2[4]. Il semblerait également que l'IL-27 soit également associée à l'hépatite médiée par les cellules T dans certains cas de pathologies aigües du foie[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connue pour ses effets anti et pro-inflammatoires cette cytokine induit notamment la différenciation des Lymphocytes Th1. Cette différenciation est médiée par une activation intracytosolique du facteur de transcription T-bet, à travers l'activation des facteurs STAT-1 dans certains cas. La fixation de l'IL-27 à son récepteur spécifique IL-27R mène au recrutement intracellulaire ainsi qu'à l'activation des Janus kinase permettant l'utilisation de la voie STAT-1 mais essentiellement STAT-3. L'IL-27 est également connu pour ses rôles de régulation négative de la différenciation des cellules Th17 pro-inflammatoires, mais aussi en induisant la sécrétion d'IL-10. Il est également montré que l'IL-27 avait un rôle dans le contrôle de la parasitémie en modulant la réponse des cellules Th2. Il semblerait également que l'IL-27 soit également associée à l'hépatite médiée par les cellules T dans certains cas de pathologies aigües du foie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Structure spatiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'IL-27 est connue pour être un hétérodimère composé d'une sous-unité IL-27p28 et d'une partie plus soluble, l'EBI3 (Epstein–Barr virus (EBV)-induced gene 3). 
 </t>
